--- a/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
+++ b/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BD93D-6525-4474-8241-B1A8C41D5E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B089B-C924-4C74-9C68-50932A148588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始資料" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="895">
   <si>
     <t>產品編號</t>
   </si>
@@ -9822,7 +9822,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -9960,8 +9960,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10001,9 +10001,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="4"/>
     </row>
   </sheetData>

--- a/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
+++ b/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B089B-C924-4C74-9C68-50932A148588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A61CE-536E-400A-9AA8-C466DB47F7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="896">
   <si>
     <t>產品編號</t>
   </si>
@@ -3493,6 +3493,10 @@
   </si>
   <si>
     <t>SEA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -10001,7 +10005,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="B4" s="4"/>
     </row>
   </sheetData>

--- a/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
+++ b/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A61CE-536E-400A-9AA8-C466DB47F7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60848B27-928D-43E0-830F-08147EC8580B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="895">
   <si>
     <t>產品編號</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>M2J</t>
@@ -3496,7 +3493,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4665,63 +4662,63 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>209</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>210</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>8</v>
@@ -4735,26 +4732,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>215</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -4764,28 +4761,28 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -4795,26 +4792,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -4824,26 +4821,26 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -4853,28 +4850,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -4884,26 +4881,26 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>8</v>
@@ -4917,26 +4914,26 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>8</v>
@@ -4950,28 +4947,28 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>247</v>
-      </c>
       <c r="G10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>8</v>
@@ -4985,26 +4982,26 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -5014,26 +5011,26 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5043,28 +5040,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>260</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -5074,28 +5071,28 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>264</v>
-      </c>
       <c r="E14" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -5105,28 +5102,28 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>269</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>8</v>
@@ -5140,26 +5137,26 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -5169,26 +5166,26 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>8</v>
@@ -5202,26 +5199,26 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -5231,28 +5228,28 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -5262,26 +5259,26 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>8</v>
@@ -5295,28 +5292,28 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>293</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>294</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -5326,26 +5323,26 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -5355,26 +5352,26 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -5384,26 +5381,26 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>304</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>305</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>8</v>
@@ -5417,28 +5414,28 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -5448,28 +5445,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>314</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>315</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -5479,26 +5476,26 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -5508,28 +5505,28 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>325</v>
-      </c>
       <c r="G28" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -5539,28 +5536,28 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>327</v>
-      </c>
       <c r="G29" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -5570,28 +5567,28 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>329</v>
-      </c>
       <c r="G30" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -5601,28 +5598,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>332</v>
-      </c>
       <c r="D31" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>324</v>
-      </c>
       <c r="F31" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>8</v>
@@ -5636,28 +5633,28 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>337</v>
-      </c>
       <c r="G32" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -5667,26 +5664,26 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>340</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -5696,26 +5693,26 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>8</v>
@@ -5729,26 +5726,26 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>346</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>347</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5758,26 +5755,26 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>209</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>210</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>8</v>
@@ -5791,28 +5788,28 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="E37" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -5822,26 +5819,26 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>357</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>358</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>8</v>
@@ -5855,26 +5852,26 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>361</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>362</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>364</v>
-      </c>
       <c r="G39" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>8</v>
@@ -5888,26 +5885,26 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>365</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>368</v>
-      </c>
       <c r="G40" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5917,28 +5914,28 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>373</v>
-      </c>
       <c r="G41" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -5948,28 +5945,28 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="E42" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>377</v>
-      </c>
       <c r="G42" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -5979,28 +5976,28 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="E43" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>382</v>
-      </c>
       <c r="G43" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -6010,28 +6007,28 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="18" t="s">
-        <v>388</v>
-      </c>
       <c r="G44" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -6041,26 +6038,26 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>8</v>
@@ -6074,26 +6071,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>393</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>394</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18" t="s">
@@ -6105,23 +6102,23 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>397</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>398</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>400</v>
-      </c>
       <c r="G47" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
@@ -6132,28 +6129,28 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>404</v>
-      </c>
       <c r="E48" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6163,26 +6160,26 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>406</v>
-      </c>
       <c r="C49" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>408</v>
-      </c>
       <c r="G49" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -6192,26 +6189,26 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>410</v>
-      </c>
       <c r="C50" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>412</v>
-      </c>
       <c r="G50" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -6221,26 +6218,26 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>414</v>
-      </c>
       <c r="C51" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -6250,26 +6247,26 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>417</v>
-      </c>
       <c r="C52" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -6279,26 +6276,26 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>421</v>
-      </c>
       <c r="G53" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>8</v>
@@ -6312,26 +6309,26 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>8</v>
@@ -6345,26 +6342,26 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
@@ -6374,26 +6371,26 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>427</v>
-      </c>
       <c r="C56" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
@@ -6403,24 +6400,24 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>430</v>
-      </c>
       <c r="C57" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
@@ -6430,24 +6427,24 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>433</v>
-      </c>
       <c r="C58" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>8</v>
@@ -6461,27 +6458,27 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>435</v>
-      </c>
       <c r="C59" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="18" t="s">
@@ -6490,24 +6487,24 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>8</v>
@@ -6521,26 +6518,26 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>442</v>
-      </c>
       <c r="C61" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>444</v>
-      </c>
       <c r="G61" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -6550,26 +6547,26 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>446</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>447</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="G62" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>8</v>
@@ -6583,28 +6580,28 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F63" s="18" t="s">
+      <c r="G63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>453</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
@@ -6614,28 +6611,28 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>455</v>
-      </c>
       <c r="C64" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>451</v>
-      </c>
       <c r="E64" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>8</v>
@@ -6649,28 +6646,28 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="D65" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="E65" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="F65" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F65" s="18" t="s">
-        <v>461</v>
-      </c>
       <c r="G65" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -6680,28 +6677,28 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="E66" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>460</v>
-      </c>
       <c r="F66" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -6711,28 +6708,28 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="D67" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="E67" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="E67" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>467</v>
-      </c>
       <c r="G67" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -6742,31 +6739,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B68" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>472</v>
-      </c>
       <c r="G68" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18" t="s">
@@ -6775,26 +6772,26 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>474</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>475</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="F69" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>477</v>
-      </c>
       <c r="G69" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>8</v>
@@ -6803,33 +6800,33 @@
         <v>9</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="E70" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="F70" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>484</v>
-      </c>
       <c r="G70" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>8</v>
@@ -6838,62 +6835,62 @@
         <v>9</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="D72" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="E72" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="E72" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>493</v>
-      </c>
       <c r="G72" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -6903,28 +6900,28 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="C73" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D73" s="18" t="s">
+      <c r="E73" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="F73" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>498</v>
-      </c>
       <c r="G73" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -6934,26 +6931,26 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>500</v>
-      </c>
       <c r="C74" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="18" t="s">
@@ -6965,26 +6962,26 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="18" t="s">
@@ -6996,26 +6993,26 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
@@ -7025,26 +7022,26 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
@@ -7054,28 +7051,28 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B78" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="C78" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>510</v>
-      </c>
       <c r="E78" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>8</v>
@@ -7089,27 +7086,27 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="B79" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>513</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F79" s="18" t="s">
         <v>514</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>515</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="18" t="s">
@@ -7118,29 +7115,29 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="18" t="s">
@@ -7149,27 +7146,27 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>519</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>520</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J81" s="18" t="s">
         <v>9</v>
@@ -7180,29 +7177,29 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="C82" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="D82" s="18" t="s">
+      <c r="E82" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" s="18" t="s">
         <v>524</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>525</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J82" s="18"/>
       <c r="K82" s="18" t="s">
@@ -7211,29 +7208,29 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="E83" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>530</v>
-      </c>
       <c r="F83" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J83" s="18"/>
       <c r="K83" s="18" t="s">
@@ -7242,29 +7239,29 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="D84" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>533</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>534</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="18" t="s">
@@ -7273,24 +7270,24 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="B85" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>536</v>
-      </c>
       <c r="C85" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
@@ -7300,24 +7297,24 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>539</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>8</v>
@@ -7331,24 +7328,24 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B87" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="C87" s="18" t="s">
         <v>542</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>543</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>8</v>
@@ -7362,24 +7359,24 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="C88" s="18" t="s">
         <v>546</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>547</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>8</v>
@@ -7388,52 +7385,52 @@
         <v>9</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="C89" s="18" t="s">
         <v>551</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>552</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
       <c r="K89" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B90" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="C90" s="18" t="s">
         <v>555</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>556</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>7</v>
@@ -7449,26 +7446,26 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="C91" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="D91" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="E91" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F91" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
@@ -7478,26 +7475,26 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B92" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="D92" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="E92" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>567</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>8</v>
@@ -7511,24 +7508,24 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="B93" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>570</v>
-      </c>
       <c r="C93" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
@@ -7536,20 +7533,20 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B94" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>573</v>
-      </c>
       <c r="C94" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -7563,20 +7560,20 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B95" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>575</v>
-      </c>
       <c r="C95" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -7590,18 +7587,18 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B96" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="C96" s="18" t="s">
         <v>577</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>578</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -7613,18 +7610,18 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B97" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="C97" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>582</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -7636,18 +7633,18 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="C98" s="18" t="s">
         <v>585</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>586</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -7657,51 +7654,51 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B99" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>588</v>
-      </c>
       <c r="C99" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>589</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>590</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="18"/>
       <c r="K99" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>594</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G100" s="18"/>
       <c r="H100" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>8</v>
@@ -7715,26 +7712,26 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="D101" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="D101" s="18" t="s">
-        <v>600</v>
-      </c>
       <c r="E101" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="18" t="s">
@@ -7780,40 +7777,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="L1" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7830,28 +7827,28 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="L2" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -7868,7 +7865,9 @@
   </sheetPr>
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -7878,1595 +7877,1601 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B197" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B198" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B199" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>894</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B199" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -9483,8 +9488,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9495,32 +9500,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9528,23 +9533,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9552,39 +9557,39 @@
         <v>15</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9592,7 +9597,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9600,47 +9605,47 @@
         <v>19</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9648,15 +9653,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9664,7 +9669,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9672,23 +9677,23 @@
         <v>6</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9696,29 +9701,29 @@
         <v>13</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -9736,7 +9741,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9747,24 +9752,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9772,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9780,15 +9785,15 @@
         <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9796,15 +9801,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9827,7 +9832,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9838,112 +9843,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
@@ -9976,39 +9981,39 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>894</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -10025,7 +10030,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10036,24 +10041,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10061,7 +10066,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10069,7 +10074,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10077,7 +10082,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10085,7 +10090,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10093,15 +10098,15 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10109,39 +10114,37 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
+++ b/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60848B27-928D-43E0-830F-08147EC8580B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DE595C-1B6F-4258-A720-2AF834D68B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始資料" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="895">
   <si>
     <t>產品編號</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>EPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>M2J</t>
@@ -3492,15 +3495,14 @@
     <t>SEA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="00"/>
+  </numFmts>
   <fonts count="30">
     <font>
       <sz val="12"/>
@@ -4224,7 +4226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4281,6 +4283,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4662,63 +4667,63 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>8</v>
@@ -4732,26 +4737,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -4761,28 +4766,28 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -4792,26 +4797,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -4821,26 +4826,26 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -4850,28 +4855,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -4881,26 +4886,26 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>8</v>
@@ -4914,26 +4919,26 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>8</v>
@@ -4947,28 +4952,28 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>8</v>
@@ -4982,26 +4987,26 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -5011,26 +5016,26 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5040,28 +5045,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -5071,28 +5076,28 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -5102,28 +5107,28 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>8</v>
@@ -5137,26 +5142,26 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -5166,26 +5171,26 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>8</v>
@@ -5199,26 +5204,26 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -5228,28 +5233,28 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -5259,26 +5264,26 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>8</v>
@@ -5292,28 +5297,28 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -5323,26 +5328,26 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -5352,26 +5357,26 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -5381,26 +5386,26 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>8</v>
@@ -5414,28 +5419,28 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -5445,28 +5450,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -5476,26 +5481,26 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -5505,28 +5510,28 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -5536,28 +5541,28 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -5567,28 +5572,28 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -5598,28 +5603,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>8</v>
@@ -5633,28 +5638,28 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -5664,26 +5669,26 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -5693,26 +5698,26 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>8</v>
@@ -5726,26 +5731,26 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5755,26 +5760,26 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>8</v>
@@ -5788,28 +5793,28 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -5819,26 +5824,26 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>8</v>
@@ -5852,26 +5857,26 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>8</v>
@@ -5885,26 +5890,26 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5914,28 +5919,28 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -5945,28 +5950,28 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -5976,28 +5981,28 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -6007,28 +6012,28 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -6038,26 +6043,26 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>8</v>
@@ -6071,26 +6076,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18" t="s">
@@ -6102,23 +6107,23 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
@@ -6129,28 +6134,28 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6160,26 +6165,26 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -6189,26 +6194,26 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -6218,26 +6223,26 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -6247,26 +6252,26 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -6276,26 +6281,26 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>8</v>
@@ -6309,26 +6314,26 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>8</v>
@@ -6342,26 +6347,26 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
@@ -6371,26 +6376,26 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
@@ -6400,24 +6405,24 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
@@ -6427,24 +6432,24 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>8</v>
@@ -6458,27 +6463,27 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="18" t="s">
@@ -6487,24 +6492,24 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>8</v>
@@ -6518,26 +6523,26 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -6547,26 +6552,26 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>8</v>
@@ -6580,28 +6585,28 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
@@ -6611,28 +6616,28 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>8</v>
@@ -6646,28 +6651,28 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -6677,28 +6682,28 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -6708,28 +6713,28 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -6739,31 +6744,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18" t="s">
@@ -6772,26 +6777,26 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>8</v>
@@ -6800,33 +6805,33 @@
         <v>9</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>8</v>
@@ -6835,62 +6840,62 @@
         <v>9</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -6900,28 +6905,28 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -6931,26 +6936,26 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="18" t="s">
@@ -6962,26 +6967,26 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="18" t="s">
@@ -6993,26 +6998,26 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
@@ -7022,26 +7027,26 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
@@ -7051,28 +7056,28 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>8</v>
@@ -7086,27 +7091,27 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="18" t="s">
@@ -7115,29 +7120,29 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="18" t="s">
@@ -7146,27 +7151,27 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81" s="18" t="s">
         <v>9</v>
@@ -7177,29 +7182,29 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J82" s="18"/>
       <c r="K82" s="18" t="s">
@@ -7208,29 +7213,29 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J83" s="18"/>
       <c r="K83" s="18" t="s">
@@ -7239,29 +7244,29 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>529</v>
-      </c>
       <c r="F84" s="18" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="18" t="s">
@@ -7270,24 +7275,24 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
@@ -7297,24 +7302,24 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>8</v>
@@ -7328,24 +7333,24 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>8</v>
@@ -7359,24 +7364,24 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>8</v>
@@ -7385,52 +7390,52 @@
         <v>9</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
       <c r="K89" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>7</v>
@@ -7446,26 +7451,26 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
@@ -7475,26 +7480,26 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>8</v>
@@ -7508,24 +7513,24 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
@@ -7533,20 +7538,20 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -7560,20 +7565,20 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -7587,18 +7592,18 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -7610,18 +7615,18 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -7633,18 +7638,18 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -7654,51 +7659,51 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="18"/>
       <c r="K99" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G100" s="18"/>
       <c r="H100" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>8</v>
@@ -7712,26 +7717,26 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="18" t="s">
@@ -7777,40 +7782,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7827,28 +7832,28 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -7865,9 +7870,7 @@
   </sheetPr>
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -7877,1601 +7880,1595 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>894</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B197" s="8"/>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>894</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B198" s="8"/>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>894</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B199" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B199" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -9488,8 +9485,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9500,32 +9497,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9533,23 +9530,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9557,39 +9554,39 @@
         <v>15</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9597,7 +9594,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9605,47 +9602,47 @@
         <v>19</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9653,15 +9650,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9669,7 +9666,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9677,23 +9674,23 @@
         <v>6</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9701,29 +9698,29 @@
         <v>13</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9740,8 +9737,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9752,32 +9749,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="22">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9785,15 +9782,15 @@
         <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9801,15 +9798,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9832,7 +9829,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9843,112 +9840,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
@@ -9969,8 +9966,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9981,39 +9978,39 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -10030,7 +10027,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10041,24 +10038,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10066,7 +10063,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10074,7 +10071,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10082,7 +10079,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10090,7 +10087,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10098,15 +10095,15 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10114,37 +10111,39 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
+++ b/產品資訊_原始資料_欄位轉換表_資料轉換表_20220421_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxz12\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DE595C-1B6F-4258-A720-2AF834D68B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFBF291-757B-404A-9C86-714CB4C7A1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="915" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始資料" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="921">
   <si>
     <t>產品編號</t>
   </si>
@@ -552,18 +552,6 @@
   </si>
   <si>
     <t>DX_926 Ewing CMO</t>
-  </si>
-  <si>
-    <t>89A</t>
-  </si>
-  <si>
-    <t>TTA</t>
-  </si>
-  <si>
-    <t>XXE</t>
-  </si>
-  <si>
-    <t>XXF</t>
   </si>
   <si>
     <t>LSB_69E Electrophoresis - WB</t>
@@ -2633,507 +2621,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>092</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>843</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>873</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>894</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>69E</t>
-  </si>
-  <si>
-    <t>NAS</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>P07</t>
-  </si>
-  <si>
-    <t>P08</t>
-  </si>
-  <si>
-    <t>P09</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>P31</t>
-  </si>
-  <si>
-    <t>P32</t>
-  </si>
-  <si>
-    <t>P33</t>
-  </si>
-  <si>
-    <t>P34</t>
-  </si>
-  <si>
-    <t>P35</t>
-  </si>
-  <si>
-    <t>P36</t>
-  </si>
-  <si>
-    <t>P41</t>
-  </si>
-  <si>
-    <t>P42</t>
-  </si>
-  <si>
-    <t>P43</t>
-  </si>
-  <si>
-    <t>P44</t>
-  </si>
-  <si>
-    <t>P45</t>
-  </si>
-  <si>
-    <t>P47</t>
-  </si>
-  <si>
-    <t>P48</t>
-  </si>
-  <si>
-    <t>P49</t>
-  </si>
-  <si>
-    <t>P51</t>
-  </si>
-  <si>
-    <t>P57</t>
-  </si>
-  <si>
-    <t>P60</t>
-  </si>
-  <si>
-    <t>P61</t>
-  </si>
-  <si>
-    <t>P62</t>
-  </si>
-  <si>
-    <t>P63</t>
-  </si>
-  <si>
-    <t>P67</t>
-  </si>
-  <si>
-    <t>P68</t>
-  </si>
-  <si>
-    <t>P69</t>
-  </si>
-  <si>
-    <t>P70</t>
-  </si>
-  <si>
-    <t>P71</t>
-  </si>
-  <si>
-    <t>P72</t>
-  </si>
-  <si>
-    <t>P73</t>
-  </si>
-  <si>
-    <t>P74</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>RSP</t>
-  </si>
-  <si>
     <t>DX_036 Dekalb CMO</t>
   </si>
   <si>
@@ -3494,6 +2981,597 @@
   <si>
     <t>SEA</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>'034</t>
+  </si>
+  <si>
+    <t>'035</t>
+  </si>
+  <si>
+    <t>'036</t>
+  </si>
+  <si>
+    <t>'037</t>
+  </si>
+  <si>
+    <t>'052</t>
+  </si>
+  <si>
+    <t>'053</t>
+  </si>
+  <si>
+    <t>'054</t>
+  </si>
+  <si>
+    <t>'056</t>
+  </si>
+  <si>
+    <t>'057</t>
+  </si>
+  <si>
+    <t>'058</t>
+  </si>
+  <si>
+    <t>'063</t>
+  </si>
+  <si>
+    <t>'064</t>
+  </si>
+  <si>
+    <t>'065</t>
+  </si>
+  <si>
+    <t>'066</t>
+  </si>
+  <si>
+    <t>'067</t>
+  </si>
+  <si>
+    <t>'068</t>
+  </si>
+  <si>
+    <t>'069</t>
+  </si>
+  <si>
+    <t>'072</t>
+  </si>
+  <si>
+    <t>'073</t>
+  </si>
+  <si>
+    <t>'077</t>
+  </si>
+  <si>
+    <t>'090</t>
+  </si>
+  <si>
+    <t>'091</t>
+  </si>
+  <si>
+    <t>'092</t>
+  </si>
+  <si>
+    <t>'093</t>
+  </si>
+  <si>
+    <t>'480</t>
+  </si>
+  <si>
+    <t>'499</t>
+  </si>
+  <si>
+    <t>'517</t>
+  </si>
+  <si>
+    <t>'519</t>
+  </si>
+  <si>
+    <t>'524</t>
+  </si>
+  <si>
+    <t>'525</t>
+  </si>
+  <si>
+    <t>'526</t>
+  </si>
+  <si>
+    <t>'527</t>
+  </si>
+  <si>
+    <t>'528</t>
+  </si>
+  <si>
+    <t>'529</t>
+  </si>
+  <si>
+    <t>'530</t>
+  </si>
+  <si>
+    <t>'531</t>
+  </si>
+  <si>
+    <t>'532</t>
+  </si>
+  <si>
+    <t>'533</t>
+  </si>
+  <si>
+    <t>'534</t>
+  </si>
+  <si>
+    <t>'535</t>
+  </si>
+  <si>
+    <t>'536</t>
+  </si>
+  <si>
+    <t>'537</t>
+  </si>
+  <si>
+    <t>'538</t>
+  </si>
+  <si>
+    <t>'539</t>
+  </si>
+  <si>
+    <t>'540</t>
+  </si>
+  <si>
+    <t>'541</t>
+  </si>
+  <si>
+    <t>'542</t>
+  </si>
+  <si>
+    <t>'604</t>
+  </si>
+  <si>
+    <t>'605</t>
+  </si>
+  <si>
+    <t>'614</t>
+  </si>
+  <si>
+    <t>'615</t>
+  </si>
+  <si>
+    <t>'635</t>
+  </si>
+  <si>
+    <t>'637</t>
+  </si>
+  <si>
+    <t>'638</t>
+  </si>
+  <si>
+    <t>'639</t>
+  </si>
+  <si>
+    <t>'640</t>
+  </si>
+  <si>
+    <t>'643</t>
+  </si>
+  <si>
+    <t>'644</t>
+  </si>
+  <si>
+    <t>'645</t>
+  </si>
+  <si>
+    <t>'646</t>
+  </si>
+  <si>
+    <t>'647</t>
+  </si>
+  <si>
+    <t>'649</t>
+  </si>
+  <si>
+    <t>'650</t>
+  </si>
+  <si>
+    <t>'653</t>
+  </si>
+  <si>
+    <t>'655</t>
+  </si>
+  <si>
+    <t>'656</t>
+  </si>
+  <si>
+    <t>'657</t>
+  </si>
+  <si>
+    <t>'658</t>
+  </si>
+  <si>
+    <t>'660</t>
+  </si>
+  <si>
+    <t>'662</t>
+  </si>
+  <si>
+    <t>'663</t>
+  </si>
+  <si>
+    <t>'664</t>
+  </si>
+  <si>
+    <t>'666</t>
+  </si>
+  <si>
+    <t>'668</t>
+  </si>
+  <si>
+    <t>'669</t>
+  </si>
+  <si>
+    <t>'670</t>
+  </si>
+  <si>
+    <t>'671</t>
+  </si>
+  <si>
+    <t>'674</t>
+  </si>
+  <si>
+    <t>'677</t>
+  </si>
+  <si>
+    <t>'678</t>
+  </si>
+  <si>
+    <t>'680</t>
+  </si>
+  <si>
+    <t>'682</t>
+  </si>
+  <si>
+    <t>'687</t>
+  </si>
+  <si>
+    <t>'689</t>
+  </si>
+  <si>
+    <t>'693</t>
+  </si>
+  <si>
+    <t>'694</t>
+  </si>
+  <si>
+    <t>'696</t>
+  </si>
+  <si>
+    <t>'698</t>
+  </si>
+  <si>
+    <t>'702</t>
+  </si>
+  <si>
+    <t>'704</t>
+  </si>
+  <si>
+    <t>'710</t>
+  </si>
+  <si>
+    <t>'711</t>
+  </si>
+  <si>
+    <t>'733</t>
+  </si>
+  <si>
+    <t>'736</t>
+  </si>
+  <si>
+    <t>'737</t>
+  </si>
+  <si>
+    <t>'738</t>
+  </si>
+  <si>
+    <t>'739</t>
+  </si>
+  <si>
+    <t>'740</t>
+  </si>
+  <si>
+    <t>'741</t>
+  </si>
+  <si>
+    <t>'742</t>
+  </si>
+  <si>
+    <t>'743</t>
+  </si>
+  <si>
+    <t>'744</t>
+  </si>
+  <si>
+    <t>'746</t>
+  </si>
+  <si>
+    <t>'747</t>
+  </si>
+  <si>
+    <t>'748</t>
+  </si>
+  <si>
+    <t>'749</t>
+  </si>
+  <si>
+    <t>'750</t>
+  </si>
+  <si>
+    <t>'755</t>
+  </si>
+  <si>
+    <t>'760</t>
+  </si>
+  <si>
+    <t>'766</t>
+  </si>
+  <si>
+    <t>'768</t>
+  </si>
+  <si>
+    <t>'769</t>
+  </si>
+  <si>
+    <t>'773</t>
+  </si>
+  <si>
+    <t>'774</t>
+  </si>
+  <si>
+    <t>'775</t>
+  </si>
+  <si>
+    <t>'777</t>
+  </si>
+  <si>
+    <t>'778</t>
+  </si>
+  <si>
+    <t>'780</t>
+  </si>
+  <si>
+    <t>'781</t>
+  </si>
+  <si>
+    <t>'784</t>
+  </si>
+  <si>
+    <t>'785</t>
+  </si>
+  <si>
+    <t>'787</t>
+  </si>
+  <si>
+    <t>'788</t>
+  </si>
+  <si>
+    <t>'789</t>
+  </si>
+  <si>
+    <t>'790</t>
+  </si>
+  <si>
+    <t>'799</t>
+  </si>
+  <si>
+    <t>'800</t>
+  </si>
+  <si>
+    <t>'806</t>
+  </si>
+  <si>
+    <t>'807</t>
+  </si>
+  <si>
+    <t>'823</t>
+  </si>
+  <si>
+    <t>'841</t>
+  </si>
+  <si>
+    <t>'842</t>
+  </si>
+  <si>
+    <t>'843</t>
+  </si>
+  <si>
+    <t>'844</t>
+  </si>
+  <si>
+    <t>'845</t>
+  </si>
+  <si>
+    <t>'873</t>
+  </si>
+  <si>
+    <t>'877</t>
+  </si>
+  <si>
+    <t>'883</t>
+  </si>
+  <si>
+    <t>'894</t>
+  </si>
+  <si>
+    <t>'898</t>
+  </si>
+  <si>
+    <t>'920</t>
+  </si>
+  <si>
+    <t>'926</t>
+  </si>
+  <si>
+    <t>'69E</t>
+  </si>
+  <si>
+    <t>'89A</t>
+  </si>
+  <si>
+    <t>'NAS</t>
+  </si>
+  <si>
+    <t>'P01</t>
+  </si>
+  <si>
+    <t>'P02</t>
+  </si>
+  <si>
+    <t>'P03</t>
+  </si>
+  <si>
+    <t>'P04</t>
+  </si>
+  <si>
+    <t>'P05</t>
+  </si>
+  <si>
+    <t>'P06</t>
+  </si>
+  <si>
+    <t>'P07</t>
+  </si>
+  <si>
+    <t>'P08</t>
+  </si>
+  <si>
+    <t>'P09</t>
+  </si>
+  <si>
+    <t>'P10</t>
+  </si>
+  <si>
+    <t>'P11</t>
+  </si>
+  <si>
+    <t>'P12</t>
+  </si>
+  <si>
+    <t>'P13</t>
+  </si>
+  <si>
+    <t>'P14</t>
+  </si>
+  <si>
+    <t>'P15</t>
+  </si>
+  <si>
+    <t>'P21</t>
+  </si>
+  <si>
+    <t>'P22</t>
+  </si>
+  <si>
+    <t>'P23</t>
+  </si>
+  <si>
+    <t>'P24</t>
+  </si>
+  <si>
+    <t>'P31</t>
+  </si>
+  <si>
+    <t>'P32</t>
+  </si>
+  <si>
+    <t>'P33</t>
+  </si>
+  <si>
+    <t>'P34</t>
+  </si>
+  <si>
+    <t>'P35</t>
+  </si>
+  <si>
+    <t>'P36</t>
+  </si>
+  <si>
+    <t>'P41</t>
+  </si>
+  <si>
+    <t>'P42</t>
+  </si>
+  <si>
+    <t>'P43</t>
+  </si>
+  <si>
+    <t>'P44</t>
+  </si>
+  <si>
+    <t>'P45</t>
+  </si>
+  <si>
+    <t>'P47</t>
+  </si>
+  <si>
+    <t>'P48</t>
+  </si>
+  <si>
+    <t>'P49</t>
+  </si>
+  <si>
+    <t>'P51</t>
+  </si>
+  <si>
+    <t>'P57</t>
+  </si>
+  <si>
+    <t>'P60</t>
+  </si>
+  <si>
+    <t>'P61</t>
+  </si>
+  <si>
+    <t>'P62</t>
+  </si>
+  <si>
+    <t>'P63</t>
+  </si>
+  <si>
+    <t>'P67</t>
+  </si>
+  <si>
+    <t>'P68</t>
+  </si>
+  <si>
+    <t>'P69</t>
+  </si>
+  <si>
+    <t>'P70</t>
+  </si>
+  <si>
+    <t>'P71</t>
+  </si>
+  <si>
+    <t>'P72</t>
+  </si>
+  <si>
+    <t>'P73</t>
+  </si>
+  <si>
+    <t>'P74</t>
+  </si>
+  <si>
+    <t>'Q13</t>
+  </si>
+  <si>
+    <t>'RSP</t>
+  </si>
+  <si>
+    <t>'TTA</t>
+  </si>
+  <si>
+    <t>'XXE</t>
+  </si>
+  <si>
+    <t>'XXF</t>
   </si>
 </sst>
 </file>
@@ -3501,7 +3579,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -4285,7 +4363,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4667,63 +4745,63 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>200</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>206</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>210</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>884</v>
+        <v>713</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>8</v>
@@ -4737,26 +4815,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>885</v>
+        <v>714</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -4766,28 +4844,28 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>884</v>
+        <v>713</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -4797,26 +4875,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -4826,26 +4904,26 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -4855,28 +4933,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>232</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -4886,26 +4964,26 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>8</v>
@@ -4919,26 +4997,26 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>8</v>
@@ -4955,25 +5033,25 @@
         <v>48</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>8</v>
@@ -4987,26 +5065,26 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -5016,26 +5094,26 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5045,28 +5123,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>260</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -5076,28 +5154,28 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -5107,28 +5185,28 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>269</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>8</v>
@@ -5142,26 +5220,26 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -5171,26 +5249,26 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>8</v>
@@ -5204,26 +5282,26 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -5233,28 +5311,28 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -5264,26 +5342,26 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>8</v>
@@ -5297,28 +5375,28 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -5328,26 +5406,26 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -5357,26 +5435,26 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -5386,26 +5464,26 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>8</v>
@@ -5419,28 +5497,28 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -5450,28 +5528,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>311</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>315</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -5481,26 +5559,26 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -5510,28 +5588,28 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -5541,28 +5619,28 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>327</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -5572,28 +5650,28 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -5603,28 +5681,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>8</v>
@@ -5638,28 +5716,28 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>333</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -5669,26 +5747,26 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -5698,26 +5776,26 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>8</v>
@@ -5731,26 +5809,26 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5760,26 +5838,26 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>8</v>
@@ -5793,28 +5871,28 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -5824,26 +5902,26 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>8</v>
@@ -5857,26 +5935,26 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>41</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>8</v>
@@ -5890,26 +5968,26 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5919,28 +5997,28 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -5950,28 +6028,28 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="18" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -5981,28 +6059,28 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>382</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -6012,28 +6090,28 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>388</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -6043,26 +6121,26 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>8</v>
@@ -6076,26 +6154,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18" t="s">
@@ -6107,20 +6185,20 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>22</v>
@@ -6134,28 +6212,28 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6165,26 +6243,26 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -6194,26 +6272,26 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -6223,26 +6301,26 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="18" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -6252,26 +6330,26 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -6281,7 +6359,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>36</v>
@@ -6291,16 +6369,16 @@
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>8</v>
@@ -6314,7 +6392,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>36</v>
@@ -6324,16 +6402,16 @@
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>8</v>
@@ -6347,7 +6425,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>36</v>
@@ -6357,16 +6435,16 @@
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
@@ -6376,26 +6454,26 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
@@ -6405,24 +6483,24 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
@@ -6432,24 +6510,24 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>8</v>
@@ -6463,27 +6541,27 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="18" t="s">
@@ -6492,24 +6570,24 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>8</v>
@@ -6523,26 +6601,26 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -6552,26 +6630,26 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>8</v>
@@ -6585,28 +6663,28 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>448</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>452</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
@@ -6616,28 +6694,28 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>8</v>
@@ -6651,28 +6729,28 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="F65" s="18" t="s">
         <v>457</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -6682,28 +6760,28 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -6713,28 +6791,28 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>463</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -6744,31 +6822,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>472</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18" t="s">
@@ -6777,26 +6855,26 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>886</v>
+        <v>715</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>8</v>
@@ -6810,28 +6888,28 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="F70" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>484</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>8</v>
@@ -6845,26 +6923,26 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G71" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -6874,28 +6952,28 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>489</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>493</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>58</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -6905,28 +6983,28 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>494</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>498</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -6936,26 +7014,26 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="18" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="18" t="s">
@@ -6967,26 +7045,26 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="18" t="s">
@@ -6998,7 +7076,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="18" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>37</v>
@@ -7008,16 +7086,16 @@
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
@@ -7027,7 +7105,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="18" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>37</v>
@@ -7037,16 +7115,16 @@
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
@@ -7056,28 +7134,28 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="18" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>8</v>
@@ -7091,27 +7169,27 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="18" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="18" t="s">
@@ -7120,7 +7198,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>38</v>
@@ -7130,19 +7208,19 @@
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="18" t="s">
@@ -7151,24 +7229,24 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>42</v>
@@ -7182,26 +7260,26 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>32</v>
@@ -7213,26 +7291,26 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>530</v>
-      </c>
       <c r="F83" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>32</v>
@@ -7244,26 +7322,26 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="18" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E84" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>530</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>534</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>32</v>
@@ -7275,24 +7353,24 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
@@ -7302,24 +7380,24 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>8</v>
@@ -7333,24 +7411,24 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>8</v>
@@ -7364,24 +7442,24 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="18" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>8</v>
@@ -7395,24 +7473,24 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="18" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
@@ -7422,20 +7500,20 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>7</v>
@@ -7451,26 +7529,26 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F91" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
@@ -7480,26 +7558,26 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>8</v>
@@ -7513,24 +7591,24 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="18" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
@@ -7538,20 +7616,20 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -7565,20 +7643,20 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -7592,18 +7670,18 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="18" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -7615,18 +7693,18 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -7638,18 +7716,18 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -7659,24 +7737,24 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="18"/>
@@ -7686,24 +7764,24 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G100" s="18"/>
       <c r="H100" s="18" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>8</v>
@@ -7717,26 +7795,26 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="18" t="s">
@@ -7782,40 +7860,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="L1" s="20" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7853,7 +7931,7 @@
         <v>77</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -7870,7 +7948,9 @@
   </sheetPr>
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -7886,23 +7966,23 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>78</v>
@@ -7910,7 +7990,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>612</v>
+        <v>725</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>79</v>
@@ -7918,23 +7998,23 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>778</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>614</v>
+        <v>727</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>779</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>615</v>
+        <v>728</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
@@ -7942,7 +8022,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>616</v>
+        <v>729</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>81</v>
@@ -7950,7 +8030,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>501</v>
+        <v>730</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>82</v>
@@ -7958,7 +8038,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>617</v>
+        <v>731</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>83</v>
@@ -7966,7 +8046,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>618</v>
+        <v>732</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>84</v>
@@ -7974,7 +8054,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>85</v>
@@ -7982,7 +8062,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>620</v>
+        <v>734</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>86</v>
@@ -7990,7 +8070,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>521</v>
+        <v>735</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
@@ -7998,7 +8078,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>621</v>
+        <v>736</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>88</v>
@@ -8006,7 +8086,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>622</v>
+        <v>737</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>89</v>
@@ -8014,7 +8094,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>623</v>
+        <v>738</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>90</v>
@@ -8022,7 +8102,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>624</v>
+        <v>739</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>91</v>
@@ -8030,7 +8110,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>625</v>
+        <v>740</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>92</v>
@@ -8038,7 +8118,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>626</v>
+        <v>741</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>93</v>
@@ -8046,7 +8126,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>627</v>
+        <v>742</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>94</v>
@@ -8054,47 +8134,47 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>628</v>
+        <v>743</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>780</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>629</v>
+        <v>744</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>781</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>630</v>
+        <v>745</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>782</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>631</v>
+        <v>746</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>783</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>632</v>
+        <v>747</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>784</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>420</v>
+        <v>748</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>95</v>
@@ -8102,7 +8182,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>530</v>
+        <v>749</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>96</v>
@@ -8110,15 +8190,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>633</v>
+        <v>750</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>785</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>634</v>
+        <v>751</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>97</v>
@@ -8126,7 +8206,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>635</v>
+        <v>752</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>98</v>
@@ -8134,7 +8214,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>636</v>
+        <v>753</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>99</v>
@@ -8142,7 +8222,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>637</v>
+        <v>754</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>100</v>
@@ -8150,7 +8230,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>638</v>
+        <v>755</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>101</v>
@@ -8158,7 +8238,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>639</v>
+        <v>756</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>102</v>
@@ -8166,7 +8246,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>103</v>
@@ -8174,7 +8254,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>641</v>
+        <v>758</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>104</v>
@@ -8182,7 +8262,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>237</v>
+        <v>759</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>105</v>
@@ -8190,7 +8270,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>642</v>
+        <v>760</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>106</v>
@@ -8198,7 +8278,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>302</v>
+        <v>761</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>107</v>
@@ -8206,7 +8286,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>643</v>
+        <v>762</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>108</v>
@@ -8214,7 +8294,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>644</v>
+        <v>763</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>109</v>
@@ -8222,7 +8302,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>645</v>
+        <v>764</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>110</v>
@@ -8230,7 +8310,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>646</v>
+        <v>765</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>111</v>
@@ -8238,7 +8318,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>647</v>
+        <v>766</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>112</v>
@@ -8246,7 +8326,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>648</v>
+        <v>767</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>113</v>
@@ -8254,7 +8334,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>649</v>
+        <v>768</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>114</v>
@@ -8262,7 +8342,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>650</v>
+        <v>769</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>115</v>
@@ -8270,7 +8350,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>651</v>
+        <v>770</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>116</v>
@@ -8278,7 +8358,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>652</v>
+        <v>771</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>117</v>
@@ -8286,7 +8366,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>653</v>
+        <v>772</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>118</v>
@@ -8294,7 +8374,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>654</v>
+        <v>773</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>119</v>
@@ -8302,7 +8382,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>655</v>
+        <v>774</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>120</v>
@@ -8310,7 +8390,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>514</v>
+        <v>775</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>121</v>
@@ -8318,7 +8398,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>656</v>
+        <v>776</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>122</v>
@@ -8326,7 +8406,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>657</v>
+        <v>777</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>123</v>
@@ -8334,7 +8414,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>658</v>
+        <v>778</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>124</v>
@@ -8342,7 +8422,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>659</v>
+        <v>779</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>125</v>
@@ -8350,47 +8430,47 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>786</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>661</v>
+        <v>781</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>787</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>662</v>
+        <v>782</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>788</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>663</v>
+        <v>783</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>789</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>664</v>
+        <v>784</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>790</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>214</v>
+        <v>785</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>126</v>
@@ -8398,7 +8478,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>336</v>
+        <v>786</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>127</v>
@@ -8406,111 +8486,111 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>665</v>
+        <v>787</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>791</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>666</v>
+        <v>788</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>792</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>667</v>
+        <v>789</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>793</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>668</v>
+        <v>790</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>794</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>669</v>
+        <v>791</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>795</v>
+        <v>624</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>670</v>
+        <v>792</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>796</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>671</v>
+        <v>793</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>797</v>
+        <v>626</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>672</v>
+        <v>794</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>798</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>673</v>
+        <v>795</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>799</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>674</v>
+        <v>796</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>800</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>675</v>
+        <v>797</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>801</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>676</v>
+        <v>798</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>802</v>
+        <v>631</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>677</v>
+        <v>799</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>803</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>128</v>
@@ -8518,47 +8598,47 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>679</v>
+        <v>801</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>804</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>680</v>
+        <v>802</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>805</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>681</v>
+        <v>803</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>806</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>682</v>
+        <v>804</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>807</v>
+        <v>636</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>683</v>
+        <v>805</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>808</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>684</v>
+        <v>806</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>129</v>
@@ -8566,7 +8646,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>411</v>
+        <v>807</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>130</v>
@@ -8574,7 +8654,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>685</v>
+        <v>808</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>131</v>
@@ -8582,7 +8662,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>407</v>
+        <v>809</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>132</v>
@@ -8590,7 +8670,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>431</v>
+        <v>810</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>133</v>
@@ -8598,7 +8678,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>288</v>
+        <v>811</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>134</v>
@@ -8606,7 +8686,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>324</v>
+        <v>812</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>135</v>
@@ -8614,15 +8694,15 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>686</v>
+        <v>813</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>809</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>367</v>
+        <v>814</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>136</v>
@@ -8630,7 +8710,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>687</v>
+        <v>815</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>137</v>
@@ -8638,7 +8718,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>138</v>
@@ -8646,7 +8726,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>387</v>
+        <v>817</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>139</v>
@@ -8654,7 +8734,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>689</v>
+        <v>818</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>140</v>
@@ -8662,103 +8742,103 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>690</v>
+        <v>819</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>810</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>691</v>
+        <v>820</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>811</v>
+        <v>640</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>692</v>
+        <v>821</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>812</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>693</v>
+        <v>822</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>813</v>
+        <v>642</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>694</v>
+        <v>823</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>814</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>695</v>
+        <v>824</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>815</v>
+        <v>644</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>696</v>
+        <v>825</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>816</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>697</v>
+        <v>826</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>817</v>
+        <v>646</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>698</v>
+        <v>827</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>818</v>
+        <v>647</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>699</v>
+        <v>828</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>819</v>
+        <v>648</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>700</v>
+        <v>829</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>820</v>
+        <v>649</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>701</v>
+        <v>830</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>821</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>702</v>
+        <v>831</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>141</v>
@@ -8766,7 +8846,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>293</v>
+        <v>832</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>142</v>
@@ -8774,7 +8854,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>399</v>
+        <v>833</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>143</v>
@@ -8782,7 +8862,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>443</v>
+        <v>834</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>144</v>
@@ -8790,7 +8870,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>436</v>
+        <v>835</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>145</v>
@@ -8798,7 +8878,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>703</v>
+        <v>836</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>146</v>
@@ -8806,7 +8886,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>497</v>
+        <v>837</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>147</v>
@@ -8814,7 +8894,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>704</v>
+        <v>838</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>148</v>
@@ -8822,7 +8902,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>372</v>
+        <v>839</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>149</v>
@@ -8830,7 +8910,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>460</v>
+        <v>840</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>150</v>
@@ -8838,7 +8918,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>705</v>
+        <v>841</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>151</v>
@@ -8846,7 +8926,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>209</v>
+        <v>842</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>152</v>
@@ -8854,7 +8934,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>363</v>
+        <v>843</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>153</v>
@@ -8862,15 +8942,15 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>706</v>
+        <v>844</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>822</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>707</v>
+        <v>845</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>154</v>
@@ -8878,15 +8958,15 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>708</v>
+        <v>846</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>823</v>
+        <v>652</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>709</v>
+        <v>847</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>155</v>
@@ -8894,7 +8974,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>710</v>
+        <v>848</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>156</v>
@@ -8902,7 +8982,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>711</v>
+        <v>849</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>157</v>
@@ -8910,7 +8990,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>712</v>
+        <v>850</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>158</v>
@@ -8918,23 +8998,23 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>713</v>
+        <v>851</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>824</v>
+        <v>653</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>714</v>
+        <v>852</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>825</v>
+        <v>654</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>221</v>
+        <v>853</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>159</v>
@@ -8942,71 +9022,71 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>715</v>
+        <v>854</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>826</v>
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>716</v>
+        <v>855</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>827</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>717</v>
+        <v>856</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>828</v>
+        <v>657</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>718</v>
+        <v>857</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>829</v>
+        <v>658</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>719</v>
+        <v>858</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>830</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>720</v>
+        <v>859</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>831</v>
+        <v>660</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>721</v>
+        <v>860</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>832</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>722</v>
+        <v>861</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>833</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>723</v>
+        <v>862</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>160</v>
@@ -9014,7 +9094,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>724</v>
+        <v>863</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>161</v>
@@ -9022,7 +9102,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>725</v>
+        <v>864</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>162</v>
@@ -9030,7 +9110,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>726</v>
+        <v>865</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>163</v>
@@ -9038,435 +9118,435 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>727</v>
+        <v>866</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>164</v>
+        <v>867</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>728</v>
+        <v>868</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>834</v>
+        <v>663</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>729</v>
+        <v>869</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>835</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>730</v>
+        <v>870</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>836</v>
+        <v>665</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>731</v>
+        <v>871</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>837</v>
+        <v>666</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>732</v>
+        <v>872</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>838</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>733</v>
+        <v>873</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>839</v>
+        <v>668</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>734</v>
+        <v>874</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>840</v>
+        <v>669</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>735</v>
+        <v>875</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>841</v>
+        <v>670</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>736</v>
+        <v>876</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>842</v>
+        <v>671</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>737</v>
+        <v>877</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>843</v>
+        <v>672</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>738</v>
+        <v>878</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>844</v>
+        <v>673</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>739</v>
+        <v>879</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>845</v>
+        <v>674</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>846</v>
+        <v>675</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>741</v>
+        <v>881</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>847</v>
+        <v>676</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>742</v>
+        <v>882</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>848</v>
+        <v>677</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>743</v>
+        <v>883</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>849</v>
+        <v>678</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>850</v>
+        <v>679</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>745</v>
+        <v>885</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>851</v>
+        <v>680</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>746</v>
+        <v>886</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>852</v>
+        <v>681</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>853</v>
+        <v>682</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>854</v>
+        <v>683</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>749</v>
+        <v>889</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>855</v>
+        <v>684</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>750</v>
+        <v>890</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>856</v>
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>751</v>
+        <v>891</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>857</v>
+        <v>686</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>752</v>
+        <v>892</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>858</v>
+        <v>687</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>753</v>
+        <v>893</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>859</v>
+        <v>688</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>754</v>
+        <v>894</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>860</v>
+        <v>689</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>755</v>
+        <v>895</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>861</v>
+        <v>690</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>756</v>
+        <v>896</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>862</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>757</v>
+        <v>897</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>863</v>
+        <v>692</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>758</v>
+        <v>898</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>864</v>
+        <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>759</v>
+        <v>899</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>865</v>
+        <v>694</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>866</v>
+        <v>695</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>761</v>
+        <v>901</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>867</v>
+        <v>696</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>762</v>
+        <v>902</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>868</v>
+        <v>697</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>763</v>
+        <v>903</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>869</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>764</v>
+        <v>904</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>870</v>
+        <v>699</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>765</v>
+        <v>905</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>871</v>
+        <v>700</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>766</v>
+        <v>906</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>872</v>
+        <v>701</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>767</v>
+        <v>907</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>873</v>
+        <v>702</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>768</v>
+        <v>908</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>874</v>
+        <v>703</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>769</v>
+        <v>909</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>875</v>
+        <v>704</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>770</v>
+        <v>910</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>876</v>
+        <v>705</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>771</v>
+        <v>911</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>877</v>
+        <v>706</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>772</v>
+        <v>912</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>878</v>
+        <v>707</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>773</v>
+        <v>913</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>879</v>
+        <v>708</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>774</v>
+        <v>914</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>880</v>
+        <v>709</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>775</v>
+        <v>915</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>881</v>
+        <v>710</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>776</v>
+        <v>916</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>882</v>
+        <v>711</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>777</v>
+        <v>917</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>883</v>
+        <v>712</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>165</v>
+        <v>918</v>
       </c>
       <c r="B197" s="8"/>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>166</v>
+        <v>919</v>
       </c>
       <c r="B198" s="8"/>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>167</v>
+        <v>920</v>
       </c>
       <c r="B199" s="8"/>
     </row>
@@ -9503,18 +9583,18 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9522,7 +9602,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9530,15 +9610,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9546,7 +9626,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9554,7 +9634,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9562,7 +9642,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9570,7 +9650,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9578,7 +9658,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9586,7 +9666,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9594,7 +9674,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9602,7 +9682,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9610,7 +9690,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9618,7 +9698,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9626,7 +9706,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9634,7 +9714,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9642,7 +9722,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9650,7 +9730,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9658,7 +9738,7 @@
         <v>58</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9666,7 +9746,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9674,7 +9754,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9682,7 +9762,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9690,7 +9770,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9698,7 +9778,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9706,7 +9786,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -9714,13 +9794,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9737,7 +9817,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -9755,18 +9835,18 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9846,23 +9926,23 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>887</v>
+        <v>716</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>884</v>
+        <v>713</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>68</v>
@@ -9870,7 +9950,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>888</v>
+        <v>717</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>67</v>
@@ -9878,7 +9958,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>889</v>
+        <v>718</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>67</v>
@@ -9886,7 +9966,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>886</v>
+        <v>715</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>71</v>
@@ -9894,7 +9974,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>890</v>
+        <v>719</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>71</v>
@@ -9902,7 +9982,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>891</v>
+        <v>720</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>71</v>
@@ -9910,7 +9990,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>892</v>
+        <v>721</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>67</v>
@@ -9918,7 +9998,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>893</v>
+        <v>722</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>67</v>
@@ -9926,7 +10006,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>885</v>
+        <v>714</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>69</v>
@@ -9934,7 +10014,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>894</v>
+        <v>723</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>69</v>
@@ -9984,18 +10064,18 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10044,18 +10124,18 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
